--- a/MyData/MyChartforDeveloper.xlsx
+++ b/MyData/MyChartforDeveloper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Documents\GitHub\MethodForTalent\MyData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32A2164-6090-4CA3-BF92-628DE8D1F222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9E2A93-7404-4AA5-B4CA-FB44B4AAA4B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{85F58599-28D4-41E7-98E2-2EE141B6937C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Title</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=4fiDs7CCxkc</t>
+  </si>
+  <si>
+    <t>Second largest element in BST</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Wrote Code</t>
+  </si>
+  <si>
+    <t>Online</t>
   </si>
 </sst>
 </file>
@@ -96,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,15 +131,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4B6BD8-FC87-48D0-98DC-29412A13B105}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +479,7 @@
     <col min="4" max="4" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,13 +498,27 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
